--- a/biology/Botanique/Saxifraganae/Saxifraganae.xlsx
+++ b/biology/Botanique/Saxifraganae/Saxifraganae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Saxifragales regroupe des plantes dicotylédones ; il a été introduit par la classification phylogénétique APG (1998). Il est rattaché directement au noyau des Dicotylédones vraies.
 Saxifragales vient du latin saxum, le rocher et frangere, briser car ces plantes sont connues pour leur capacité à s'installer dans des fissures de rochers.
@@ -512,10 +524,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En classification phylogénétique APG IV (2016)[1] il faut y ajouter les Cynomoriaceae.
-En classification phylogénétique APG III (2009)[2] l'ordre des Saxifragales comprend les familles suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique APG IV (2016) il faut y ajouter les Cynomoriaceae.
+En classification phylogénétique APG III (2009) l'ordre des Saxifragales comprend les familles suivantes :
 famille des Altingiaceae
 famille des Aphanopetalaceae
 famille des Cercidiphyllaceae
@@ -529,9 +543,43 @@
 famille des Penthoraceae
 famille des Peridiscaceae (incluant Medusandraceae)
 famille des Saxifragaceae
-famille des Tetracarpaeaceae
-Anciennes classifications
-En classification phylogénétique APG II (2003)[3] l'ordre des Saxifragales comprenait les familles suivantes :
+famille des Tetracarpaeaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saxifraganae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saxifraganae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Anciennes classifications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique APG II (2003) l'ordre des Saxifragales comprenait les familles suivantes :
 famille des Altingiaceae
 famille des Aphanopetalaceae
 famille des Cercidiphyllaceae
